--- a/2.安全建设顺序-安全建设第五版.xlsx
+++ b/2.安全建设顺序-安全建设第五版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
   <si>
     <t>内容</t>
   </si>
@@ -98,6 +98,9 @@
     <t>持续运营彻底处理</t>
   </si>
   <si>
+    <t>突发应急</t>
+  </si>
+  <si>
     <t>国家通用法律规定</t>
   </si>
   <si>
@@ -276,6 +279,9 @@
   </si>
   <si>
     <t>加固</t>
+  </si>
+  <si>
+    <t>持续发现与处理威胁</t>
   </si>
   <si>
     <t>自动化运营</t>
@@ -1275,7 +1281,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1393,13 +1399,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="13.7272727272727" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1428,6 +1438,11 @@
       </c>
       <c r="B4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1458,43 +1473,43 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" ht="17" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1525,87 +1540,87 @@
   <sheetData>
     <row r="2" ht="56" spans="1:12">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1627,68 +1642,68 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1710,67 +1725,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1782,32 +1797,37 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A6:A9"/>
+  <dimension ref="A4:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/2.安全建设顺序-安全建设第五版.xlsx
+++ b/2.安全建设顺序-安全建设第五版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>内容</t>
   </si>
@@ -35,6 +35,12 @@
     <t>调研公司情况，确定着重点及顺序。是否发现过入侵</t>
   </si>
   <si>
+    <t>应急</t>
+  </si>
+  <si>
+    <t>应急处理安全问题</t>
+  </si>
+  <si>
     <t>法律法规</t>
   </si>
   <si>
@@ -50,7 +56,7 @@
     <t>安全管理体系</t>
   </si>
   <si>
-    <t>包含安全制度及工作流程管理</t>
+    <t>包含安全制度及工作流程</t>
   </si>
   <si>
     <t>安全技术体系建设</t>
@@ -242,6 +248,9 @@
     <t>对外信息发布流程</t>
   </si>
   <si>
+    <t>工作流安全优化</t>
+  </si>
+  <si>
     <t>系统建设</t>
   </si>
   <si>
@@ -261,9 +270,6 @@
   </si>
   <si>
     <t>审计</t>
-  </si>
-  <si>
-    <t>应急</t>
   </si>
   <si>
     <t>运营</t>
@@ -1279,13 +1285,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
     <col min="2" max="2" width="22.4545454545455" customWidth="1"/>
@@ -1346,6 +1352,14 @@
       </c>
       <c r="B7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1367,27 +1381,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1401,8 +1415,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1413,36 +1427,36 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1468,48 +1482,48 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="17" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1540,87 +1554,87 @@
   <sheetData>
     <row r="2" ht="56" spans="1:12">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1632,78 +1646,83 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B14"/>
+  <dimension ref="A2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1717,75 +1736,75 @@
   <sheetPr/>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1807,27 +1826,27 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/2.安全建设顺序-安全建设第五版.xlsx
+++ b/2.安全建设顺序-安全建设第五版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="6"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
   <si>
     <t>内容</t>
   </si>
@@ -107,6 +107,12 @@
     <t>突发应急</t>
   </si>
   <si>
+    <t>突发安全事件处理</t>
+  </si>
+  <si>
+    <t>0day/安全事件感知系统</t>
+  </si>
+  <si>
     <t>国家通用法律规定</t>
   </si>
   <si>
@@ -251,6 +257,15 @@
     <t>工作流安全优化</t>
   </si>
   <si>
+    <t>漏洞管理流程</t>
+  </si>
+  <si>
+    <t>渗透测试流程</t>
+  </si>
+  <si>
+    <t>代码审计流程</t>
+  </si>
+  <si>
     <t>系统建设</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
   </si>
   <si>
     <t>加固</t>
+  </si>
+  <si>
+    <t>感知</t>
   </si>
   <si>
     <t>持续发现与处理威胁</t>
@@ -1288,7 +1306,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1413,13 +1431,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="13.7272727272727" customWidth="1"/>
@@ -1454,9 +1472,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1497,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B1:B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1487,43 +1513,43 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="17" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1538,7 +1564,7 @@
   <dimension ref="A2:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1554,87 +1580,87 @@
   <sheetData>
     <row r="2" ht="56" spans="1:12">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1646,83 +1672,98 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B15"/>
+  <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>75</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1734,47 +1775,51 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="17.5454545454545" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1784,27 +1829,32 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1826,27 +1876,27 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/2.安全建设顺序-安全建设第五版.xlsx
+++ b/2.安全建设顺序-安全建设第五版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="16" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
   <si>
     <t>内容</t>
   </si>
@@ -83,6 +83,9 @@
     <t>后期调研</t>
   </si>
   <si>
+    <t>安全建设现状</t>
+  </si>
+  <si>
     <t>见情况调研分析表</t>
   </si>
   <si>
@@ -138,6 +141,42 @@
   </si>
   <si>
     <t>《中华人民共和国海上交通安全法》</t>
+  </si>
+  <si>
+    <t>电商二清规定</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>《</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFEA4335"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>电子商务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF4D5156"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法》</t>
+    </r>
   </si>
   <si>
     <t>公司</t>
@@ -327,7 +366,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,6 +387,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF4D5156"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -489,6 +535,14 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFEA4335"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -800,10 +854,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,34 +866,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -851,98 +902,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,6 +1008,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1306,7 +1363,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1392,7 +1449,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1417,9 +1474,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1433,8 +1495,8 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -1450,39 +1512,39 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1494,16 +1556,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="9.72727272727273" customWidth="1"/>
+    <col min="2" max="2" width="19.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1513,43 +1575,53 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" ht="17" spans="2:2">
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1636,7 @@
   <dimension ref="A2:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5"/>
@@ -1580,87 +1652,87 @@
   <sheetData>
     <row r="2" ht="56" spans="1:12">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1675,95 +1747,95 @@
   <dimension ref="A2:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1778,7 +1850,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1789,37 +1861,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1829,32 +1901,32 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1869,34 +1941,34 @@
   <dimension ref="A4:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/2.安全建设顺序-安全建设第五版.xlsx
+++ b/2.安全建设顺序-安全建设第五版.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="3"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="16" r:id="rId1"/>
     <sheet name="调研分析" sheetId="18" r:id="rId2"/>
     <sheet name="应急" sheetId="17" r:id="rId3"/>
     <sheet name="法律法规" sheetId="19" r:id="rId4"/>
-    <sheet name="公司分析及建设方案" sheetId="14" r:id="rId5"/>
+    <sheet name="建设方案" sheetId="14" r:id="rId5"/>
     <sheet name="管理体系建设" sheetId="20" r:id="rId6"/>
     <sheet name="技术体系建设 " sheetId="21" r:id="rId7"/>
     <sheet name="运营体系建设" sheetId="22" r:id="rId8"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t>内容</t>
   </si>
@@ -179,76 +179,115 @@
     </r>
   </si>
   <si>
-    <t>公司</t>
-  </si>
-  <si>
     <t>行业</t>
   </si>
   <si>
+    <t>行业法律</t>
+  </si>
+  <si>
     <t>业务</t>
   </si>
   <si>
     <t>产品</t>
   </si>
   <si>
-    <t>核心资产</t>
-  </si>
-  <si>
-    <t>资产属性</t>
-  </si>
-  <si>
-    <t>核心安全威胁</t>
-  </si>
-  <si>
-    <t>通用安全威胁</t>
-  </si>
-  <si>
-    <t>威胁解决方案</t>
+    <t>安全应急</t>
+  </si>
+  <si>
+    <t>安全需求</t>
+  </si>
+  <si>
+    <t>安全威胁及危害</t>
   </si>
   <si>
     <t>成本（时间成本，人员投入，金钱投入）</t>
   </si>
   <si>
-    <t>优先级建议（结合业务，法律，安全现状等评估）</t>
-  </si>
-  <si>
-    <t>实施度</t>
+    <t>优先级建议</t>
+  </si>
+  <si>
+    <t>需要支持</t>
   </si>
   <si>
     <t>通信行业</t>
   </si>
   <si>
+    <t>《通信基础设施保护法》</t>
+  </si>
+  <si>
+    <t>核心业务A</t>
+  </si>
+  <si>
+    <t>核心产品A</t>
+  </si>
+  <si>
+    <t>需要应急，优先级S</t>
+  </si>
+  <si>
+    <t>达到等保标准，要进行等保建设</t>
+  </si>
+  <si>
+    <t>符合XX行业法律标准，要按行业法律进行合规改造</t>
+  </si>
+  <si>
+    <t>业务数据安全</t>
+  </si>
+  <si>
+    <t>核心威胁-应用安全</t>
+  </si>
+  <si>
+    <t>结合业务，法律，安全现状等评估优先级为A，原因是XXX</t>
+  </si>
+  <si>
+    <t>这方面工作涉及部门配合，管理方面内容较多，需要XX部门支持</t>
+  </si>
+  <si>
+    <t>用户数据安全</t>
+  </si>
+  <si>
+    <t>普通威胁-办公安全</t>
+  </si>
+  <si>
+    <t>结合业务，法律，安全现状等评估优先级为S，原因是XXX</t>
+  </si>
+  <si>
+    <t>这方面工作，是纯技术内容，需要招聘资深工程师，需要HR部门支持</t>
+  </si>
+  <si>
+    <t>普通产品B</t>
+  </si>
+  <si>
+    <t>不需要应急</t>
+  </si>
+  <si>
+    <t>方面工作，以目前部门资源可以搞定，不需要支持</t>
+  </si>
+  <si>
+    <t>普通业务B</t>
+  </si>
+  <si>
+    <t>核心产品C</t>
+  </si>
+  <si>
+    <t>需要应急，优先级A</t>
+  </si>
+  <si>
+    <t>普通产品D</t>
+  </si>
+  <si>
+    <t>需要应急，优先级C</t>
+  </si>
+  <si>
+    <t>互联网</t>
+  </si>
+  <si>
+    <t>云服务</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
     <t>业务A</t>
-  </si>
-  <si>
-    <t>产品A</t>
-  </si>
-  <si>
-    <t>应用安全</t>
-  </si>
-  <si>
-    <t>办公安全</t>
-  </si>
-  <si>
-    <t>见具体文件夹</t>
-  </si>
-  <si>
-    <t>应用安全-基础安全-数据安全</t>
-  </si>
-  <si>
-    <t>纯技术、技术+管理、纯管理</t>
-  </si>
-  <si>
-    <t>互联网</t>
-  </si>
-  <si>
-    <t>数据安全</t>
-  </si>
-  <si>
-    <t>云服务</t>
-  </si>
-  <si>
-    <t>游戏</t>
   </si>
   <si>
     <t>集团资产管理规定</t>
@@ -996,12 +1035,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1558,8 +1606,8 @@
   <sheetPr/>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -1600,7 +1648,7 @@
       </c>
     </row>
     <row r="6" ht="17" spans="2:2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1610,7 +1658,7 @@
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1620,7 +1668,7 @@
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1633,28 +1681,31 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:L6"/>
+  <dimension ref="A2:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="7.44545454545455" customWidth="1"/>
-    <col min="5" max="6" width="12.3363636363636" customWidth="1"/>
-    <col min="7" max="7" width="15.4454545454545" customWidth="1"/>
-    <col min="8" max="8" width="17.2181818181818" customWidth="1"/>
-    <col min="9" max="9" width="14.6636363636364" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.8909090909091" customWidth="1"/>
+    <col min="1" max="1" width="10.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="14.4545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.9090909090909" customWidth="1"/>
+    <col min="4" max="4" width="11.0909090909091" customWidth="1"/>
+    <col min="5" max="5" width="11.4545454545455" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.4545454545455" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1818181818182" customWidth="1"/>
+    <col min="8" max="8" width="21.1818181818182" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.4545454545455" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="56" spans="1:12">
+    <row r="2" ht="28" spans="1:10">
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C2" t="s">
@@ -1663,79 +1714,169 @@
       <c r="D2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>48</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="1" t="s">
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:9">
+      <c r="A3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L2" t="s">
+      <c r="B3" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" ht="56" spans="1:9">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" ht="48" customHeight="1" spans="1:10">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K3" t="s">
+      <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="L3" t="s">
+      <c r="I5" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="2:8">
-      <c r="B4" t="s">
+      <c r="J5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="6" ht="42" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="G6" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
+      <c r="I6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C6" t="s">
-        <v>55</v>
+      <c r="J6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1754,88 +1895,88 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1861,37 +2002,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1901,32 +2042,32 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1948,27 +2089,27 @@
   <sheetData>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
